--- a/biology/Zoologie/Arthropoda_(classification_phylogénétique)/Arthropoda_(classification_phylogénétique).xlsx
+++ b/biology/Zoologie/Arthropoda_(classification_phylogénétique)/Arthropoda_(classification_phylogénétique).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Arthropoda_(classification_phylog%C3%A9n%C3%A9tique)</t>
+          <t>Arthropoda_(classification_phylogénétique)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette page a pour objet de présenter un arbre phylogénétique des Arthropoda (Arthropodes), c'est-à-dire un cladogramme mettant en lumière les relations de parenté existant entre leurs différents groupes (ou taxa), telles que les dernières analyses reconnues les proposent. Ce n'est qu'une possibilité, et les principaux débats qui subsistent au sein de la communauté scientifique sont brièvement présentés ci-dessous, avant la bibliographie.
 On a ici pris le terme Arthropoda au sens strict, les Lobopodes (paraphylétiques) et autres Onychophores, Tardigrades et Radiodontes (en) constituant avec eux le groupe des Panarthropodes.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Arthropoda_(classification_phylog%C3%A9n%C3%A9tique)</t>
+          <t>Arthropoda_(classification_phylogénétique)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Arbre phylogénétique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cladogramme présenté ici ne possède qu'une valeur indicative. Il n'est pas forcément consensuel, et on peut toujours se référer à la bibliographie au bas de l'article.
 Le symbole ▲ renvoie à la partie immédiatement supérieure de l'arbre phylogénétique du vivant. Le signe ► renvoie à la classification phylogénétique du groupe considéré. Tout nœud de l'arbre portant plus de deux branches montre une indétermination de la phylogénie interne du groupe considéré.
@@ -817,7 +831,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Arthropoda_(classification_phylog%C3%A9n%C3%A9tique)</t>
+          <t>Arthropoda_(classification_phylogénétique)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -835,7 +849,9 @@
           <t>Débat scientifique relatif à la phylogénie des Arthropoda</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les faunes d'Ediacara et de Burgess ont à la fois enrichi et complexifié la question des origines des Arthropodes. Mais il y a actuellement consensus sur la monophylie du groupe.
 Par contre, il n'y a pas encore de consensus sur la parenté des différents taxons de haut niveau au sein de ce phylum, le plus nombreux du règne animal. Là comme ailleurs, paléontologues et biologistes moléculaires ont des approches divergentes.
@@ -928,7 +944,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Arthropoda_(classification_phylog%C3%A9n%C3%A9tique)</t>
+          <t>Arthropoda_(classification_phylogénétique)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -948,8 +964,13 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Sources
-Omar Rota-Stabelli, Lahcen Campbell, Henner Brinkmann, Gregory D. Edgecombe, Stuart J. Longhorn, Kevin J. Peterson, Davide Pisani, Hervé Philippe et Maximilian J. Telford : « A congruent solution to arthropod phylogeny: phylogenomics, microRNAs and morphology support monophyletic Mandibulata », Proc. R. Soc. B, 2010
+          <t>Sources</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Omar Rota-Stabelli, Lahcen Campbell, Henner Brinkmann, Gregory D. Edgecombe, Stuart J. Longhorn, Kevin J. Peterson, Davide Pisani, Hervé Philippe et Maximilian J. Telford : « A congruent solution to arthropod phylogeny: phylogenomics, microRNAs and morphology support monophyletic Mandibulata », Proc. R. Soc. B, 2010
 Jerome C. Regier, Jeffrey W. Shultz, Andreas Zwick, April Hussey, Bernard Ball, Regina Wetzer, Joel W. Martin et Clifford W. Cunningham : « Arthropod relationships revealed by phylogenomic analysis of nuclear protein-coding sequences », Nature, vol. 463, 2010, pp. 1079-1083
 Jerome C. Regier, Jeffrey W. Shultz, Austen R.D. Ganley, April Hussey, Diane Shi, Bernard Ball, Andreas Zwick, Jason E. Stajich, Michael P. Cummings, Joel W. Martin et Clifford W. Cunningham : « Resolving Arthropod Phylogeny: Exploring Phylogenetic Signal within 41 kb of Protein-Coding Nuclear Gene Sequence », Syst. Biol., vol. 57, n°6, 2008, pp.1–19
 J. R. Hendricks et B. S. Lieberman, « New Phylogenetic Insights into the Cambrian Radiation of Arachnomorph Arthropods », Journal of Paleontology, vol. 82, n°3, 2008, pp. 585-594
@@ -957,9 +978,43 @@
 Yun-xia Luan, Jon M. Mallatt, Rong-dong Xie, Yi-ming Yang et Wen-ying Yin, « The Phylogenetic Positions of Three Basal-Hexapod Groups (Protura, Diplura, and Collembola) Based on Ribosomal RNA Gene Sequences », Molecular Biology and Evolution, vol. 22, n°7, 2005, pp. 1579-1592
 Dennis V. Lavrov, Wesley M. Brown et Jeffrey L. Boore, « Phylogenetic position of the Pentastomida and (pan)crustacean relationships », Proc. R. Soc. Lond. B, 2004
 Sven Lange, Cees H.J. Hof, Frederick R. Schram et Fedor A. Steeman, « New Genus and Species from the Cretaceous of Lebanon Links the Thylacocephala To the Crustacea », Palaeontology, vol. 44, n°5, 2001, pp. 905-912
-A. Dunlop et P.A. Selden, « The early history and phylogeny of the chelicerates », in R.A. Fortey et R.H. Thomas (éd.), Arthropod Relationships. Systematics Association Special Volumes Series 55, Chapman &amp; Hall, London, 1977, pp.  221–235
-Sources internet
-Frans Janssens, Peter Nolan Lawrence, « Checklist of the Collembola: Are Collembola terrestrial Crustacea? », in Collembola of the World
+A. Dunlop et P.A. Selden, « The early history and phylogeny of the chelicerates », in R.A. Fortey et R.H. Thomas (éd.), Arthropod Relationships. Systematics Association Special Volumes Series 55, Chapman &amp; Hall, London, 1977, pp.  221–235</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Arthropoda_(classification_phylogénétique)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Arthropoda_(classification_phylog%C3%A9n%C3%A9tique)</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>En savoir plus</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Sources internet</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Frans Janssens, Peter Nolan Lawrence, « Checklist of the Collembola: Are Collembola terrestrial Crustacea? », in Collembola of the World
 Joel Hallan: Biology Catalog</t>
         </is>
       </c>
